--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/39/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/39/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.00322</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>2003.22</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>2.60744</v>
+        <v>3.40968</v>
       </c>
       <c r="C5" t="n">
-        <v>2607.44</v>
+        <v>3409.68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124015</v>
+        <v>0.123988</v>
       </c>
       <c r="B6" t="n">
-        <v>3.04822</v>
+        <v>3.88218</v>
       </c>
       <c r="C6" t="n">
-        <v>3048.22</v>
+        <v>3882.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155045</v>
+        <v>0.155018</v>
       </c>
       <c r="B7" t="n">
-        <v>3.4898</v>
+        <v>4.31264</v>
       </c>
       <c r="C7" t="n">
-        <v>3489.8</v>
+        <v>4312.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186021</v>
+        <v>0.185994</v>
       </c>
       <c r="B8" t="n">
-        <v>3.88027</v>
+        <v>4.570819999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>3880.27</v>
+        <v>4570.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216998</v>
+        <v>0.216971</v>
       </c>
       <c r="B9" t="n">
-        <v>4.12234</v>
+        <v>4.75975</v>
       </c>
       <c r="C9" t="n">
-        <v>4122.34</v>
+        <v>4759.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247974</v>
+        <v>0.247947</v>
       </c>
       <c r="B10" t="n">
-        <v>4.196470000000001</v>
+        <v>4.84394</v>
       </c>
       <c r="C10" t="n">
-        <v>4196.47</v>
+        <v>4843.94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2789</v>
+        <v>0.278874</v>
       </c>
       <c r="B11" t="n">
-        <v>4.1993</v>
+        <v>4.87472</v>
       </c>
       <c r="C11" t="n">
-        <v>4199.3</v>
+        <v>4874.72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309825</v>
+        <v>0.309799</v>
       </c>
       <c r="B12" t="n">
-        <v>4.19415</v>
+        <v>4.89463</v>
       </c>
       <c r="C12" t="n">
-        <v>4194.15</v>
+        <v>4894.63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.34075</v>
+        <v>0.340724</v>
       </c>
       <c r="B13" t="n">
-        <v>4.18701</v>
+        <v>4.90556</v>
       </c>
       <c r="C13" t="n">
-        <v>4187.01</v>
+        <v>4905.56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371675</v>
+        <v>0.371649</v>
       </c>
       <c r="B14" t="n">
-        <v>4.18011</v>
+        <v>4.91391</v>
       </c>
       <c r="C14" t="n">
-        <v>4180.11</v>
+        <v>4913.91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4026</v>
+        <v>0.402574</v>
       </c>
       <c r="B15" t="n">
-        <v>4.17176</v>
+        <v>4.921060000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>4171.76</v>
+        <v>4921.06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433525</v>
+        <v>0.433499</v>
       </c>
       <c r="B16" t="n">
-        <v>4.16325</v>
+        <v>4.92673</v>
       </c>
       <c r="C16" t="n">
-        <v>4163.25</v>
+        <v>4926.73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.46445</v>
+        <v>0.464424</v>
       </c>
       <c r="B17" t="n">
-        <v>4.15421</v>
+        <v>4.93184</v>
       </c>
       <c r="C17" t="n">
-        <v>4154.21</v>
+        <v>4931.84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495375</v>
+        <v>0.495349</v>
       </c>
       <c r="B18" t="n">
-        <v>4.14474</v>
+        <v>4.936170000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>4144.74</v>
+        <v>4936.17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5263</v>
+        <v>0.526274</v>
       </c>
       <c r="B19" t="n">
-        <v>4.13463</v>
+        <v>4.939640000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>4134.63</v>
+        <v>4939.64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557225</v>
+        <v>0.557195</v>
       </c>
       <c r="B20" t="n">
-        <v>4.12389</v>
+        <v>4.94263</v>
       </c>
       <c r="C20" t="n">
-        <v>4123.89</v>
+        <v>4942.63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588145</v>
+        <v>0.58812</v>
       </c>
       <c r="B21" t="n">
-        <v>4.11287</v>
+        <v>4.94491</v>
       </c>
       <c r="C21" t="n">
-        <v>4112.87</v>
+        <v>4944.91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619188</v>
+        <v>0.619162</v>
       </c>
       <c r="B22" t="n">
-        <v>4.10128</v>
+        <v>4.94673</v>
       </c>
       <c r="C22" t="n">
-        <v>4101.28</v>
+        <v>4946.73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650365</v>
+        <v>0.650339</v>
       </c>
       <c r="B23" t="n">
-        <v>4.08917</v>
+        <v>4.948060000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>4089.17</v>
+        <v>4948.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6815369999999999</v>
+        <v>0.681512</v>
       </c>
       <c r="B24" t="n">
-        <v>4.07664</v>
+        <v>4.94891</v>
       </c>
       <c r="C24" t="n">
-        <v>4076.64</v>
+        <v>4948.91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.71271</v>
+        <v>0.712684</v>
       </c>
       <c r="B25" t="n">
-        <v>4.06366</v>
+        <v>4.94934</v>
       </c>
       <c r="C25" t="n">
-        <v>4063.66</v>
+        <v>4949.34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743887</v>
+        <v>0.743861</v>
       </c>
       <c r="B26" t="n">
-        <v>4.05021</v>
+        <v>4.94937</v>
       </c>
       <c r="C26" t="n">
-        <v>4050.21</v>
+        <v>4949.37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.7750590000000001</v>
+        <v>0.775034</v>
       </c>
       <c r="B27" t="n">
-        <v>4.03631</v>
+        <v>4.94901</v>
       </c>
       <c r="C27" t="n">
-        <v>4036.31</v>
+        <v>4949.01</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806236</v>
+        <v>0.806211</v>
       </c>
       <c r="B28" t="n">
-        <v>4.02187</v>
+        <v>4.948270000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>4021.87</v>
+        <v>4948.27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837409</v>
+        <v>0.837383</v>
       </c>
       <c r="B29" t="n">
-        <v>4.006860000000001</v>
+        <v>4.94717</v>
       </c>
       <c r="C29" t="n">
-        <v>4006.86</v>
+        <v>4947.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868581</v>
+        <v>0.868556</v>
       </c>
       <c r="B30" t="n">
-        <v>3.99112</v>
+        <v>4.94575</v>
       </c>
       <c r="C30" t="n">
-        <v>3991.12</v>
+        <v>4945.75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8997579999999999</v>
+        <v>0.899733</v>
       </c>
       <c r="B31" t="n">
-        <v>3.97491</v>
+        <v>4.94397</v>
       </c>
       <c r="C31" t="n">
-        <v>3974.91</v>
+        <v>4943.97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930931</v>
+        <v>0.930906</v>
       </c>
       <c r="B32" t="n">
-        <v>3.95811</v>
+        <v>4.94187</v>
       </c>
       <c r="C32" t="n">
-        <v>3958.11</v>
+        <v>4941.87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962104</v>
+        <v>0.962078</v>
       </c>
       <c r="B33" t="n">
-        <v>3.9407</v>
+        <v>4.93946</v>
       </c>
       <c r="C33" t="n">
-        <v>3940.7</v>
+        <v>4939.46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993281</v>
+        <v>0.993255</v>
       </c>
       <c r="B34" t="n">
-        <v>3.92262</v>
+        <v>4.936739999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>3922.62</v>
+        <v>4936.74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02459</v>
+        <v>1.02423</v>
       </c>
       <c r="B35" t="n">
-        <v>3.90382</v>
+        <v>4.933689999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>3903.82</v>
+        <v>4933.69</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05597</v>
+        <v>1.05519</v>
       </c>
       <c r="B36" t="n">
-        <v>3.88434</v>
+        <v>4.93034</v>
       </c>
       <c r="C36" t="n">
-        <v>3884.34</v>
+        <v>4930.34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08735</v>
+        <v>1.08616</v>
       </c>
       <c r="B37" t="n">
-        <v>3.86419</v>
+        <v>4.92671</v>
       </c>
       <c r="C37" t="n">
-        <v>3864.19</v>
+        <v>4926.71</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11873</v>
+        <v>1.11713</v>
       </c>
       <c r="B38" t="n">
-        <v>3.84336</v>
+        <v>4.92273</v>
       </c>
       <c r="C38" t="n">
-        <v>3843.36</v>
+        <v>4922.73</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1499</v>
+        <v>1.1481</v>
       </c>
       <c r="B39" t="n">
-        <v>3.82197</v>
+        <v>4.91845</v>
       </c>
       <c r="C39" t="n">
-        <v>3821.97</v>
+        <v>4918.45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18087</v>
+        <v>1.17896</v>
       </c>
       <c r="B40" t="n">
-        <v>3.79984</v>
+        <v>4.91387</v>
       </c>
       <c r="C40" t="n">
-        <v>3799.84</v>
+        <v>4913.87</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21187</v>
+        <v>1.21001</v>
       </c>
       <c r="B41" t="n">
-        <v>3.77679</v>
+        <v>4.90885</v>
       </c>
       <c r="C41" t="n">
-        <v>3776.79</v>
+        <v>4908.85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24297</v>
+        <v>1.2406</v>
       </c>
       <c r="B42" t="n">
-        <v>3.75291</v>
+        <v>4.90361</v>
       </c>
       <c r="C42" t="n">
-        <v>3752.91</v>
+        <v>4903.61</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27389</v>
+        <v>1.27115</v>
       </c>
       <c r="B43" t="n">
-        <v>3.72833</v>
+        <v>4.89807</v>
       </c>
       <c r="C43" t="n">
-        <v>3728.33</v>
+        <v>4898.07</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30498</v>
+        <v>1.30171</v>
       </c>
       <c r="B44" t="n">
-        <v>3.70277</v>
+        <v>4.89221</v>
       </c>
       <c r="C44" t="n">
-        <v>3702.77</v>
+        <v>4892.21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.3358</v>
+        <v>1.33288</v>
       </c>
       <c r="B45" t="n">
-        <v>3.67658</v>
+        <v>4.88582</v>
       </c>
       <c r="C45" t="n">
-        <v>3676.58</v>
+        <v>4885.82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36702</v>
+        <v>1.36446</v>
       </c>
       <c r="B46" t="n">
-        <v>3.64899</v>
+        <v>4.87899</v>
       </c>
       <c r="C46" t="n">
-        <v>3648.99</v>
+        <v>4878.99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39778</v>
+        <v>1.39603</v>
       </c>
       <c r="B47" t="n">
-        <v>3.62089</v>
+        <v>4.87167</v>
       </c>
       <c r="C47" t="n">
-        <v>3620.89</v>
+        <v>4871.67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.429</v>
+        <v>1.42727</v>
       </c>
       <c r="B48" t="n">
-        <v>3.59131</v>
+        <v>4.86374</v>
       </c>
       <c r="C48" t="n">
-        <v>3591.31</v>
+        <v>4863.74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45989</v>
+        <v>1.45842</v>
       </c>
       <c r="B49" t="n">
-        <v>3.56094</v>
+        <v>4.855270000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>3560.94</v>
+        <v>4855.27</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49094</v>
+        <v>1.48956</v>
       </c>
       <c r="B50" t="n">
-        <v>3.52931</v>
+        <v>4.846439999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>3529.31</v>
+        <v>4846.44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52192</v>
+        <v>1.52071</v>
       </c>
       <c r="B51" t="n">
-        <v>3.4967</v>
+        <v>4.837260000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>3496.7</v>
+        <v>4837.26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55296</v>
+        <v>1.55186</v>
       </c>
       <c r="B52" t="n">
-        <v>3.46298</v>
+        <v>4.82766</v>
       </c>
       <c r="C52" t="n">
-        <v>3462.98</v>
+        <v>4827.66</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58396</v>
+        <v>1.58301</v>
       </c>
       <c r="B53" t="n">
-        <v>3.42817</v>
+        <v>4.817600000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>3428.17</v>
+        <v>4817.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.6149</v>
+        <v>1.61415</v>
       </c>
       <c r="B54" t="n">
-        <v>3.3925</v>
+        <v>4.807020000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>3392.5</v>
+        <v>4807.02</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64596</v>
+        <v>1.6453</v>
       </c>
       <c r="B55" t="n">
-        <v>3.35576</v>
+        <v>4.795979999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>3355.76</v>
+        <v>4795.98</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67695</v>
+        <v>1.67645</v>
       </c>
       <c r="B56" t="n">
-        <v>3.31812</v>
+        <v>4.78439</v>
       </c>
       <c r="C56" t="n">
-        <v>3318.12</v>
+        <v>4784.39</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70797</v>
+        <v>1.70759</v>
       </c>
       <c r="B57" t="n">
-        <v>3.27948</v>
+        <v>4.772189999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>3279.48</v>
+        <v>4772.19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73902</v>
+        <v>1.73874</v>
       </c>
       <c r="B58" t="n">
-        <v>3.24002</v>
+        <v>4.75923</v>
       </c>
       <c r="C58" t="n">
-        <v>3240.02</v>
+        <v>4759.23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76984</v>
+        <v>1.76988</v>
       </c>
       <c r="B59" t="n">
-        <v>3.20025</v>
+        <v>4.74553</v>
       </c>
       <c r="C59" t="n">
-        <v>3200.25</v>
+        <v>4745.53</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80106</v>
+        <v>1.80103</v>
       </c>
       <c r="B60" t="n">
-        <v>3.1594</v>
+        <v>4.731050000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>3159.4</v>
+        <v>4731.05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83163</v>
+        <v>1.83218</v>
       </c>
       <c r="B61" t="n">
-        <v>3.11893</v>
+        <v>4.71579</v>
       </c>
       <c r="C61" t="n">
-        <v>3118.93</v>
+        <v>4715.79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86307</v>
+        <v>1.86332</v>
       </c>
       <c r="B62" t="n">
-        <v>3.07688</v>
+        <v>4.69975</v>
       </c>
       <c r="C62" t="n">
-        <v>3076.88</v>
+        <v>4699.75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.8939</v>
+        <v>1.89447</v>
       </c>
       <c r="B63" t="n">
-        <v>3.03534</v>
+        <v>4.68286</v>
       </c>
       <c r="C63" t="n">
-        <v>3035.34</v>
+        <v>4682.86</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92492</v>
+        <v>1.92562</v>
       </c>
       <c r="B64" t="n">
-        <v>2.99314</v>
+        <v>4.66509</v>
       </c>
       <c r="C64" t="n">
-        <v>2993.14</v>
+        <v>4665.09</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95615</v>
+        <v>1.95642</v>
       </c>
       <c r="B65" t="n">
-        <v>2.9505</v>
+        <v>4.64662</v>
       </c>
       <c r="C65" t="n">
-        <v>2950.5</v>
+        <v>4646.62</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98673</v>
+        <v>1.98742</v>
       </c>
       <c r="B66" t="n">
-        <v>2.90885</v>
+        <v>4.6271</v>
       </c>
       <c r="C66" t="n">
-        <v>2908.85</v>
+        <v>4627.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01804</v>
+        <v>2.01851</v>
       </c>
       <c r="B67" t="n">
-        <v>2.86616</v>
+        <v>4.60643</v>
       </c>
       <c r="C67" t="n">
-        <v>2866.16</v>
+        <v>4606.43</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04938</v>
+        <v>2.04945</v>
       </c>
       <c r="B68" t="n">
-        <v>2.82388</v>
+        <v>4.584890000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>2823.88</v>
+        <v>4584.89</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.0795</v>
+        <v>2.08054</v>
       </c>
       <c r="B69" t="n">
-        <v>2.78255</v>
+        <v>4.5619</v>
       </c>
       <c r="C69" t="n">
-        <v>2782.55</v>
+        <v>4561.9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11128</v>
+        <v>2.11136</v>
       </c>
       <c r="B70" t="n">
-        <v>2.7399</v>
+        <v>4.53804</v>
       </c>
       <c r="C70" t="n">
-        <v>2739.9</v>
+        <v>4538.04</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14221</v>
+        <v>2.14264</v>
       </c>
       <c r="B71" t="n">
-        <v>2.69847</v>
+        <v>4.51257</v>
       </c>
       <c r="C71" t="n">
-        <v>2698.47</v>
+        <v>4512.57</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17261</v>
+        <v>2.1733</v>
       </c>
       <c r="B72" t="n">
-        <v>2.65842</v>
+        <v>4.48609</v>
       </c>
       <c r="C72" t="n">
-        <v>2658.42</v>
+        <v>4486.09</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20439</v>
+        <v>2.20468</v>
       </c>
       <c r="B73" t="n">
-        <v>2.61796</v>
+        <v>4.45779</v>
       </c>
       <c r="C73" t="n">
-        <v>2617.96</v>
+        <v>4457.79</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.2352</v>
+        <v>2.23545</v>
       </c>
       <c r="B74" t="n">
-        <v>2.57805</v>
+        <v>4.42838</v>
       </c>
       <c r="C74" t="n">
-        <v>2578.05</v>
+        <v>4428.38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26592</v>
+        <v>2.2665</v>
       </c>
       <c r="B75" t="n">
-        <v>2.53953</v>
+        <v>4.39725</v>
       </c>
       <c r="C75" t="n">
-        <v>2539.53</v>
+        <v>4397.25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29696</v>
+        <v>2.29757</v>
       </c>
       <c r="B76" t="n">
-        <v>2.50193</v>
+        <v>4.364710000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>2501.93</v>
+        <v>4364.71</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.3281</v>
+        <v>2.3285</v>
       </c>
       <c r="B77" t="n">
-        <v>2.46341</v>
+        <v>4.33058</v>
       </c>
       <c r="C77" t="n">
-        <v>2463.41</v>
+        <v>4330.58</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35918</v>
+        <v>2.35949</v>
       </c>
       <c r="B78" t="n">
-        <v>2.42649</v>
+        <v>4.29478</v>
       </c>
       <c r="C78" t="n">
-        <v>2426.49</v>
+        <v>4294.78</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39027</v>
+        <v>2.39062</v>
       </c>
       <c r="B79" t="n">
-        <v>2.39106</v>
+        <v>4.25755</v>
       </c>
       <c r="C79" t="n">
-        <v>2391.06</v>
+        <v>4257.55</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42046</v>
+        <v>2.42151</v>
       </c>
       <c r="B80" t="n">
-        <v>2.35662</v>
+        <v>4.218529999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>2356.62</v>
+        <v>4218.53</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45</v>
+        <v>2.45245</v>
       </c>
       <c r="B81" t="n">
-        <v>2.32396</v>
+        <v>4.17817</v>
       </c>
       <c r="C81" t="n">
-        <v>2323.96</v>
+        <v>4178.17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47926</v>
+        <v>2.4827</v>
       </c>
       <c r="B82" t="n">
-        <v>2.29307</v>
+        <v>4.13746</v>
       </c>
       <c r="C82" t="n">
-        <v>2293.07</v>
+        <v>4137.46</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51295</v>
+        <v>2.51386</v>
       </c>
       <c r="B83" t="n">
-        <v>2.25879</v>
+        <v>4.09385</v>
       </c>
       <c r="C83" t="n">
-        <v>2258.79</v>
+        <v>4093.85</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54495</v>
+        <v>2.54577</v>
       </c>
       <c r="B84" t="n">
-        <v>2.22616</v>
+        <v>4.04842</v>
       </c>
       <c r="C84" t="n">
-        <v>2226.16</v>
+        <v>4048.42</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57533</v>
+        <v>2.57649</v>
       </c>
       <c r="B85" t="n">
-        <v>2.19676</v>
+        <v>4.00287</v>
       </c>
       <c r="C85" t="n">
-        <v>2196.76</v>
+        <v>4002.87</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60725</v>
+        <v>2.60684</v>
       </c>
       <c r="B86" t="n">
-        <v>2.17051</v>
+        <v>3.95731</v>
       </c>
       <c r="C86" t="n">
-        <v>2170.51</v>
+        <v>3957.31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64053</v>
+        <v>2.63766</v>
       </c>
       <c r="B87" t="n">
-        <v>2.14431</v>
+        <v>3.90966</v>
       </c>
       <c r="C87" t="n">
-        <v>2144.31</v>
+        <v>3909.66</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67381</v>
+        <v>2.6693</v>
       </c>
       <c r="B88" t="n">
-        <v>2.11859</v>
+        <v>3.85993</v>
       </c>
       <c r="C88" t="n">
-        <v>2118.59</v>
+        <v>3859.93</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70709</v>
+        <v>2.7001</v>
       </c>
       <c r="B89" t="n">
-        <v>2.09313</v>
+        <v>3.81085</v>
       </c>
       <c r="C89" t="n">
-        <v>2093.13</v>
+        <v>3810.85</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.74037</v>
+        <v>2.72997</v>
       </c>
       <c r="B90" t="n">
-        <v>2.06851</v>
+        <v>3.76219</v>
       </c>
       <c r="C90" t="n">
-        <v>2068.51</v>
+        <v>3762.19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.77365</v>
+        <v>2.76092</v>
       </c>
       <c r="B91" t="n">
-        <v>2.04509</v>
+        <v>3.71177</v>
       </c>
       <c r="C91" t="n">
-        <v>2045.09</v>
+        <v>3711.77</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.80693</v>
+        <v>2.79292</v>
       </c>
       <c r="B92" t="n">
-        <v>2.02326</v>
+        <v>3.65807</v>
       </c>
       <c r="C92" t="n">
-        <v>2023.26</v>
+        <v>3658.07</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.84021</v>
+        <v>2.82491</v>
       </c>
       <c r="B93" t="n">
-        <v>2.00195</v>
+        <v>3.6054</v>
       </c>
       <c r="C93" t="n">
-        <v>2001.95</v>
+        <v>3605.4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.87349</v>
+        <v>2.85531</v>
       </c>
       <c r="B94" t="n">
-        <v>1.98134</v>
+        <v>3.55362</v>
       </c>
       <c r="C94" t="n">
-        <v>1981.34</v>
+        <v>3553.62</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.90466</v>
+        <v>2.88571</v>
       </c>
       <c r="B95" t="n">
-        <v>1.96319</v>
+        <v>3.5029</v>
       </c>
       <c r="C95" t="n">
-        <v>1963.19</v>
+        <v>3502.9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.93447</v>
+        <v>2.91524</v>
       </c>
       <c r="B96" t="n">
-        <v>1.9502</v>
+        <v>3.45326</v>
       </c>
       <c r="C96" t="n">
-        <v>1950.2</v>
+        <v>3453.26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.96647</v>
+        <v>2.94666</v>
       </c>
       <c r="B97" t="n">
-        <v>1.93829</v>
+        <v>3.40027</v>
       </c>
       <c r="C97" t="n">
-        <v>1938.29</v>
+        <v>3400.27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.99847</v>
+        <v>2.97958</v>
       </c>
       <c r="B98" t="n">
-        <v>1.9258</v>
+        <v>3.34616</v>
       </c>
       <c r="C98" t="n">
-        <v>1925.8</v>
+        <v>3346.16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.03047</v>
+        <v>3.01073</v>
       </c>
       <c r="B99" t="n">
-        <v>1.91427</v>
+        <v>3.29339</v>
       </c>
       <c r="C99" t="n">
-        <v>1914.27</v>
+        <v>3293.39</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.06247</v>
+        <v>3.04181</v>
       </c>
       <c r="B100" t="n">
-        <v>1.90315</v>
+        <v>3.24188</v>
       </c>
       <c r="C100" t="n">
-        <v>1903.15</v>
+        <v>3241.88</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.09447</v>
+        <v>3.07268</v>
       </c>
       <c r="B101" t="n">
-        <v>1.89215</v>
+        <v>3.19166</v>
       </c>
       <c r="C101" t="n">
-        <v>1892.15</v>
+        <v>3191.66</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.12647</v>
+        <v>3.10194</v>
       </c>
       <c r="B102" t="n">
-        <v>1.87996</v>
+        <v>3.14264</v>
       </c>
       <c r="C102" t="n">
-        <v>1879.96</v>
+        <v>3142.64</v>
       </c>
     </row>
   </sheetData>
